--- a/Input/Cigna_Global_Health/cignaScript/inputRates/benefits.xlsx
+++ b/Input/Cigna_Global_Health/cignaScript/inputRates/benefits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="168">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -173,6 +173,21 @@
   </si>
   <si>
     <t xml:space="preserve">addons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$copay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$outPatient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$vaccination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$physiotherepy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$medicines</t>
   </si>
   <si>
     <t xml:space="preserve">Platinum</t>
@@ -200,21 +215,21 @@
     <t xml:space="preserve">Private room</t>
   </si>
   <si>
+    <t xml:space="preserve">Covered up to USD 14,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 months wait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to USD 28,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to USD 156,000 for 90 days</t>
+  </si>
+  <si>
     <t xml:space="preserve">Optional Benefit</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered up to USD 14,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 months wait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to USD 28,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to USD 156,000 for 90 days</t>
-  </si>
-  <si>
     <t xml:space="preserve">Acupuncture and Chinese medicine covered in full</t>
   </si>
   <si>
@@ -252,6 +267,21 @@
   </si>
   <si>
     <t xml:space="preserve">Worldwide including USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to USD 2,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medicines covered up to USD 1,500, Diagnostics &amp; lab tests covered up to USD 2,500  Consultation covered up to USD 2,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adults- Covered up to USD 250 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to USD 5,000 (Combined benefit) - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to USD 1,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket</t>
   </si>
   <si>
     <t xml:space="preserve">Silver</t>
@@ -505,7 +535,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -532,6 +562,17 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -576,13 +617,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -605,8 +650,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -626,13 +679,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BA50"/>
+  <dimension ref="A1:BF50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AQ1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AU4" activeCellId="0" sqref="AU4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BD1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BE2" activeCellId="0" sqref="BE2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="11.52"/>
@@ -641,144 +694,149 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="23.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="36.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="24.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="41.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="2" width="37.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="2" width="44.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="2" width="51.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="2" width="61.69"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="2" t="s">
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="2" t="s">
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AR1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AT1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AU1" s="7" t="s">
         <v>44</v>
       </c>
       <c r="AV1" s="0" t="s">
@@ -799,715 +857,749 @@
       <c r="BA1" s="0" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="57.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="BC1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="BD1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="2" t="s">
+      <c r="BF1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="2" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="269.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="5"/>
+      <c r="W2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU2" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV2" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AX2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF2" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="V2" s="4"/>
-      <c r="W2" s="2" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AS2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU2" s="0" t="s">
+      <c r="J3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="V3" s="5"/>
+      <c r="W3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AV2" s="0" t="s">
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AR3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AX2" s="7" t="s">
+      <c r="AS3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AY2" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="BA2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="V3" s="4"/>
-      <c r="W3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="4"/>
-      <c r="AM3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO3" s="4"/>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AS3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT3" s="6" t="s">
-        <v>83</v>
+      <c r="AT3" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="AU3" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ3" s="4" t="s">
-        <v>85</v>
+        <v>94</v>
+      </c>
+      <c r="AZ3" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="BA3" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="2" t="s">
+    <row r="4" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="O4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="V4" s="4"/>
-      <c r="W4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="X4" s="2" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="Y4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR4" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AS4" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT4" s="6" t="s">
-        <v>93</v>
+      <c r="H4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="V4" s="5"/>
+      <c r="W4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT4" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="AU4" s="0" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="BA4" s="0" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT5" s="6" t="s">
-        <v>95</v>
+      <c r="AT5" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="AU5" s="0" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="BA5" s="0" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT6" s="6" t="s">
-        <v>97</v>
+      <c r="O6" s="2"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="2"/>
+      <c r="AT6" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="AU6" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="BA6" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA6" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT7" s="6" t="s">
-        <v>99</v>
+      <c r="AT7" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="AU7" s="0" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BA7" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT8" s="6" t="s">
-        <v>101</v>
+      <c r="AT8" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="AU8" s="0" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="BA8" s="0" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT9" s="6" t="s">
-        <v>103</v>
+      <c r="AT9" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="AU9" s="0" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="BA9" s="0" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT10" s="6" t="s">
-        <v>105</v>
+      <c r="AT10" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="AU10" s="0" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="BA10" s="0" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT11" s="6" t="s">
-        <v>107</v>
+      <c r="AT11" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="AU11" s="0" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="BA11" s="0" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT12" s="6" t="s">
-        <v>109</v>
+      <c r="AT12" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="AU12" s="0" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BA12" s="0" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT13" s="6" t="s">
-        <v>111</v>
+      <c r="AT13" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="AU13" s="0" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="BA13" s="0" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT14" s="6" t="s">
-        <v>113</v>
+      <c r="AT14" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="AU14" s="0" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT15" s="6" t="s">
-        <v>115</v>
+      <c r="AT15" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="AU15" s="0" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT16" s="6" t="s">
-        <v>117</v>
+      <c r="AT16" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="AU16" s="0" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT17" s="6" t="s">
-        <v>119</v>
+      <c r="AT17" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="AU17" s="0" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT18" s="6" t="s">
-        <v>121</v>
+      <c r="AT18" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="AU18" s="0" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT19" s="6" t="s">
-        <v>123</v>
+      <c r="AT19" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="AU19" s="0" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT20" s="6" t="s">
-        <v>125</v>
+      <c r="AT20" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="AU20" s="0" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT21" s="6" t="s">
-        <v>127</v>
+      <c r="AT21" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="AU21" s="0" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT22" s="6" t="s">
-        <v>129</v>
+      <c r="AT22" s="7" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT23" s="6" t="s">
-        <v>130</v>
+      <c r="AT23" s="7" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT24" s="6" t="s">
-        <v>131</v>
+      <c r="AT24" s="7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT25" s="6" t="s">
-        <v>132</v>
+      <c r="AT25" s="7" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT26" s="6" t="s">
-        <v>133</v>
+      <c r="AT26" s="7" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT27" s="6" t="s">
-        <v>134</v>
+      <c r="AT27" s="7" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT28" s="6" t="s">
-        <v>135</v>
+      <c r="AT28" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT29" s="6" t="s">
-        <v>136</v>
+      <c r="AT29" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT30" s="6" t="s">
-        <v>137</v>
+      <c r="AT30" s="7" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT31" s="6" t="s">
-        <v>138</v>
+      <c r="AT31" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT32" s="6" t="s">
-        <v>139</v>
+      <c r="AT32" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT33" s="6" t="s">
-        <v>140</v>
+      <c r="AT33" s="7" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT34" s="6" t="s">
-        <v>141</v>
+      <c r="AT34" s="7" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT35" s="6" t="s">
-        <v>142</v>
+      <c r="AT35" s="7" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT36" s="6" t="s">
-        <v>143</v>
+      <c r="AT36" s="7" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT37" s="6" t="s">
-        <v>144</v>
+      <c r="AT37" s="7" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT38" s="6" t="s">
-        <v>145</v>
+      <c r="AT38" s="7" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT39" s="6" t="s">
-        <v>146</v>
+      <c r="AT39" s="7" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT40" s="6" t="s">
-        <v>147</v>
+      <c r="AT40" s="7" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT41" s="6" t="s">
-        <v>148</v>
+      <c r="AT41" s="7" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT42" s="6" t="s">
-        <v>149</v>
+      <c r="AT42" s="7" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT43" s="6" t="s">
-        <v>150</v>
+      <c r="AT43" s="7" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT44" s="6" t="s">
-        <v>151</v>
+      <c r="AT44" s="7" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT45" s="6" t="s">
-        <v>152</v>
+      <c r="AT45" s="7" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT46" s="6" t="s">
-        <v>153</v>
+      <c r="AT46" s="7" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT47" s="6" t="s">
-        <v>154</v>
+      <c r="AT47" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT48" s="6" t="s">
-        <v>155</v>
+      <c r="AT48" s="7" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT49" s="6" t="s">
-        <v>156</v>
+      <c r="AT49" s="7" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT50" s="6" t="s">
-        <v>157</v>
+      <c r="AT50" s="7" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/Input/Cigna_Global_Health/cignaScript/inputRates/benefits.xlsx
+++ b/Input/Cigna_Global_Health/cignaScript/inputRates/benefits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="171">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -67,13 +67,13 @@
     <t xml:space="preserve">Out-patient benefits</t>
   </si>
   <si>
-    <t xml:space="preserve">Out-patient_Consultations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Out-patient_Specialists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Out-patient_Medicines</t>
+    <t xml:space="preserve">Out-patient-Consultations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out-patient-Specialists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out-patient-Medicines</t>
   </si>
   <si>
     <t xml:space="preserve">Vaccination</t>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t xml:space="preserve">$medicines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deductible</t>
   </si>
   <si>
     <t xml:space="preserve">Platinum</t>
@@ -269,19 +272,277 @@
     <t xml:space="preserve">Worldwide including USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered up to USD 2,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medicines covered up to USD 1,500, Diagnostics &amp; lab tests covered up to USD 2,500  Consultation covered up to USD 2,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adults- Covered up to USD 250 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to USD 5,000 (Combined benefit) - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to USD 1,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Covered up to USD 2,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Platinum </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">^ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Covered up to USD 12,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Silver </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">^ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Covered up to USD 22,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket – Gold</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Medicines covered up to USD 1,500, Diagnostics &amp; lab tests covered up to USD 2,500  Consultation covered up to USD 2,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Platinum </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Medicines covered up to USD 2,500, Diagnostics &amp; lab tests covered up to USD 2,500  Consultation covered up to USD 2,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Silver </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Medicines covered up to USD 1,500, Diagnostics &amp; lab tests covered up to USD 2,500  Consultation covered up to USD 2,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Gold</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adults- Covered up to USD 250 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Platinum </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Adults- Covered up to USD 350 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Silver </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Adults- Covered up to USD 450 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Gold</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Covered up to USD 5,000 (Combined benefit) - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Platinum </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Covered up to USD 5,000 (Combined benefit) - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Silver </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">^ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Covered up to USD 5,000 (Combined benefit) - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Gold</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Covered up to USD 1,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Platinum </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">^ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Covered up to USD 2,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Silver </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">^ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Covered up to USD 1,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Gold</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">IP</t>
   </si>
   <si>
     <t xml:space="preserve">Silver</t>
@@ -309,6 +570,9 @@
   </si>
   <si>
     <t xml:space="preserve">Worldwide excluding USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP</t>
   </si>
   <si>
     <t xml:space="preserve">Gold</t>
@@ -535,7 +799,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -564,23 +828,48 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -617,8 +906,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -631,6 +924,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -650,15 +951,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -675,168 +980,175 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BF50"/>
+  <dimension ref="A1:BG50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BD1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BE2" activeCellId="0" sqref="BE2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="0" width="11.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="15" style="1" width="11.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="22" style="0" width="11.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="44" min="44" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="11.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="82.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="77.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="23.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="49" style="0" width="11.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="36.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="24.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="41.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="2" width="37.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="2" width="44.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="2" width="51.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="2" width="61.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="3" width="55.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="3" width="60.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="3" width="44.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="3" width="51.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="3" width="61.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="59" style="0" width="11.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="3" t="s">
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AN1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="3" t="s">
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AR1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AS1" s="4" t="s">
         <v>42</v>
       </c>
       <c r="AT1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" s="7" t="s">
+      <c r="AU1" s="10" t="s">
         <v>44</v>
       </c>
       <c r="AV1" s="0" t="s">
@@ -857,749 +1169,737 @@
       <c r="BA1" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BC1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BD1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BE1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BF1" s="7" t="s">
         <v>55</v>
       </c>
+      <c r="BG1" s="0" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="269.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="8"/>
+      <c r="W2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT2" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU2" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV2" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY2" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="BB2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="BC2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG2" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="G3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="V3" s="8"/>
+      <c r="W3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT3" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU3" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="AZ3" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="BG3" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O2" s="8" t="s">
+      <c r="G4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="V2" s="5"/>
-      <c r="W2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="X2" s="3" t="s">
+      <c r="V4" s="8"/>
+      <c r="W4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Y2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG2" s="3" t="s">
+      <c r="Z4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AH2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="3" t="s">
+      <c r="AC4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AR4" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="AT2" s="7" t="s">
+      <c r="AS4" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AU2" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="AV2" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AX2" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY2" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="AZ2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="BA2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="BB2" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC2" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD2" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="BE2" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="BF2" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="V3" s="5"/>
-      <c r="W3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AR3" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AS3" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT3" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU3" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ3" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="BA3" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="V4" s="5"/>
-      <c r="W4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="5"/>
-      <c r="AQ4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AR4" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AS4" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT4" s="7" t="s">
-        <v>103</v>
+      <c r="AT4" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="AU4" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="BA4" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT5" s="7" t="s">
-        <v>105</v>
+      <c r="AT5" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="AU5" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="BA5" s="0" t="s">
-        <v>34</v>
+        <v>109</v>
+      </c>
+      <c r="BA5" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O6" s="2"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="2"/>
-      <c r="AT6" s="7" t="s">
-        <v>107</v>
+      <c r="O6" s="14"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="14"/>
+      <c r="AT6" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="AU6" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="BA6" s="5" t="s">
-        <v>31</v>
+        <v>111</v>
+      </c>
+      <c r="BA6" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT7" s="7" t="s">
-        <v>109</v>
+      <c r="AT7" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="AU7" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="BA7" s="0" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT8" s="7" t="s">
-        <v>111</v>
+      <c r="AT8" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="AU8" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="BA8" s="0" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT9" s="7" t="s">
-        <v>113</v>
+      <c r="AT9" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="AU9" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="BA9" s="0" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT10" s="7" t="s">
-        <v>115</v>
+      <c r="AT10" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="AU10" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="BA10" s="0" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT11" s="7" t="s">
-        <v>117</v>
+      <c r="AT11" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="AU11" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="BA11" s="0" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT12" s="7" t="s">
-        <v>119</v>
+      <c r="AT12" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="AU12" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="BA12" s="0" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT13" s="7" t="s">
-        <v>121</v>
+      <c r="AT13" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="AU13" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="BA13" s="0" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT14" s="7" t="s">
-        <v>123</v>
+      <c r="AT14" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="AU14" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT15" s="7" t="s">
-        <v>125</v>
+      <c r="AT15" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="AU15" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT16" s="7" t="s">
-        <v>127</v>
+      <c r="AT16" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="AU16" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT17" s="7" t="s">
-        <v>129</v>
+      <c r="AT17" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="AU17" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT18" s="7" t="s">
-        <v>131</v>
+      <c r="AT18" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="AU18" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT19" s="7" t="s">
-        <v>133</v>
+      <c r="AT19" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="AU19" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT20" s="7" t="s">
-        <v>135</v>
+      <c r="AT20" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="AU20" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT21" s="7" t="s">
-        <v>137</v>
+      <c r="AT21" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="AU21" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT22" s="7" t="s">
-        <v>139</v>
+      <c r="AT22" s="10" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT23" s="7" t="s">
-        <v>140</v>
+      <c r="AT23" s="10" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT24" s="7" t="s">
-        <v>141</v>
+      <c r="AT24" s="10" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT25" s="7" t="s">
-        <v>142</v>
+      <c r="AT25" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT26" s="7" t="s">
-        <v>143</v>
+      <c r="AT26" s="10" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT27" s="7" t="s">
-        <v>144</v>
+      <c r="AT27" s="10" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT28" s="7" t="s">
-        <v>145</v>
+      <c r="AT28" s="10" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT29" s="7" t="s">
-        <v>146</v>
+      <c r="AT29" s="10" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT30" s="7" t="s">
-        <v>147</v>
+      <c r="AT30" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT31" s="7" t="s">
-        <v>148</v>
+      <c r="AT31" s="10" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT32" s="7" t="s">
-        <v>149</v>
+      <c r="AT32" s="10" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT33" s="7" t="s">
-        <v>150</v>
+      <c r="AT33" s="10" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT34" s="7" t="s">
-        <v>151</v>
+      <c r="AT34" s="10" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT35" s="7" t="s">
-        <v>152</v>
+      <c r="AT35" s="10" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT36" s="7" t="s">
-        <v>153</v>
+      <c r="AT36" s="10" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT37" s="7" t="s">
-        <v>154</v>
+      <c r="AT37" s="10" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT38" s="7" t="s">
-        <v>155</v>
+      <c r="AT38" s="10" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT39" s="7" t="s">
-        <v>156</v>
+      <c r="AT39" s="10" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT40" s="7" t="s">
-        <v>157</v>
+      <c r="AT40" s="10" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT41" s="7" t="s">
-        <v>158</v>
+      <c r="AT41" s="10" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT42" s="7" t="s">
-        <v>159</v>
+      <c r="AT42" s="10" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT43" s="7" t="s">
-        <v>160</v>
+      <c r="AT43" s="10" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT44" s="7" t="s">
-        <v>161</v>
+      <c r="AT44" s="10" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT45" s="7" t="s">
-        <v>162</v>
+      <c r="AT45" s="10" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT46" s="7" t="s">
-        <v>163</v>
+      <c r="AT46" s="10" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT47" s="7" t="s">
-        <v>164</v>
+      <c r="AT47" s="10" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT48" s="7" t="s">
-        <v>165</v>
+      <c r="AT48" s="10" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT49" s="7" t="s">
-        <v>166</v>
+      <c r="AT49" s="10" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT50" s="7" t="s">
-        <v>167</v>
+      <c r="AT50" s="10" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/Input/Cigna_Global_Health/cignaScript/inputRates/benefits.xlsx
+++ b/Input/Cigna_Global_Health/cignaScript/inputRates/benefits.xlsx
@@ -274,18 +274,27 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Covered up to USD 2,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Platinum </t>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Covered in full</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Platinum </t>
     </r>
     <r>
       <rPr>
         <b val="true"/>
-        <sz val="12"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -295,18 +304,27 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Covered up to USD 12,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Silver </t>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Covered up to USD 2,500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Silver </t>
     </r>
     <r>
       <rPr>
         <b val="true"/>
-        <sz val="12"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -316,25 +334,43 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Covered up to USD 22,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket – Gold</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Medicines covered up to USD 1,500, Diagnostics &amp; lab tests covered up to USD 2,500  Consultation covered up to USD 2,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Platinum </t>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Covered up to USD 5,000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Gold</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Medicines covered up to USD 1,500, Diagnostics &amp; lab tests covered up to USD 2,500  Consultation covered up to USD 2,500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Platinum </t>
     </r>
     <r>
       <rPr>
@@ -355,7 +391,26 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> Medicines covered up to USD 2,500, Diagnostics &amp; lab tests covered up to USD 2,500  Consultation covered up to USD 2,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Silver </t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Medicines covered up to USD 1,500 Diagnostics &amp; lab tests covered up to USD 2,500  Consultation covered up to USD 2,500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Silver </t>
     </r>
     <r>
       <rPr>
@@ -376,19 +431,47 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> Medicines covered up to USD 1,500, Diagnostics &amp; lab tests covered up to USD 2,500  Consultation covered up to USD 2,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Gold</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Adults- Covered up to USD 250 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Platinum </t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Medicines covered up to USD 1,500 Diagnostics &amp; lab tests covered up to USD 2,500  Consultation covered up to USD 2,500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Gold</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Adults- Covered in full</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Platinum </t>
     </r>
     <r>
       <rPr>
@@ -409,7 +492,26 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> Adults- Covered up to USD 350 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Silver </t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Adults- Covered up to USD 250</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Silver </t>
     </r>
     <r>
       <rPr>
@@ -430,19 +532,47 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> Adults- Covered up to USD 450 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Gold</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Covered up to USD 5,000 (Combined benefit) - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Platinum </t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Adults- Covered in full</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Gold</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Covered in full</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Platinum </t>
     </r>
     <r>
       <rPr>
@@ -482,21 +612,39 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Covered up to USD 5,000 (Combined benefit) - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Gold</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Covered up to USD 1,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Platinum </t>
+      </rPr>
+      <t xml:space="preserve">Covered up to USD 10,000 (Combined benefit)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Gold</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Covered in full</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Platinum </t>
     </r>
     <r>
       <rPr>
@@ -515,9 +663,18 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Covered up to USD 2,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Silver </t>
+      </rPr>
+      <t xml:space="preserve">Covered up to USD 1,500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Silver </t>
     </r>
     <r>
       <rPr>
@@ -536,9 +693,18 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Covered up to USD 1,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Gold</t>
+      </rPr>
+      <t xml:space="preserve">Covered up to USD 3,000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Gold</t>
     </r>
   </si>
   <si>
@@ -799,7 +965,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -828,19 +994,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -906,7 +1063,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -959,10 +1116,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -986,8 +1139,8 @@
   </sheetPr>
   <dimension ref="A1:BG50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1005,10 +1158,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="49" style="0" width="11.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="36.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="24.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="3" width="55.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="3" width="60.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="3" width="44.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="3" width="51.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="3" width="63.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="3" width="68.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="3" width="64.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="3" width="63.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="3" width="61.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="59" style="0" width="11.67"/>
   </cols>
@@ -1188,7 +1341,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="269.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="441.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>57</v>
       </c>
@@ -1333,16 +1486,16 @@
       <c r="BB2" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="BC2" s="13" t="s">
+      <c r="BC2" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="BD2" s="13" t="s">
+      <c r="BD2" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="BE2" s="13" t="s">
+      <c r="BE2" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="BF2" s="13" t="s">
+      <c r="BF2" s="12" t="s">
         <v>87</v>
       </c>
       <c r="BG2" s="0" t="s">
@@ -1623,10 +1776,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O6" s="14"/>
+      <c r="O6" s="13"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="14"/>
+      <c r="R6" s="13"/>
       <c r="AT6" s="10" t="s">
         <v>110</v>
       </c>

--- a/Input/Cigna_Global_Health/cignaScript/inputRates/benefits.xlsx
+++ b/Input/Cigna_Global_Health/cignaScript/inputRates/benefits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="172">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t xml:space="preserve">Emergency-Evacuation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repatriation-Benefit</t>
   </si>
   <si>
     <t xml:space="preserve">Virtual / Tele Doctor</t>
@@ -278,18 +281,9 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Covered in full</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Platinum </t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Covered in full - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Platinum </t>
     </r>
     <r>
       <rPr>
@@ -308,18 +302,9 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Covered up to USD 2,500</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Silver </t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Covered up to USD 2,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Silver </t>
     </r>
     <r>
       <rPr>
@@ -338,39 +323,21 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Covered up to USD 5,000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Gold</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Medicines covered up to USD 1,500, Diagnostics &amp; lab tests covered up to USD 2,500  Consultation covered up to USD 2,500</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Platinum </t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Covered up to USD 5,000 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Gold</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Medicines covered up to USD 1,500, Diagnostics &amp; lab tests covered up to USD 2,500  Consultation covered up to USD 2,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Platinum </t>
     </r>
     <r>
       <rPr>
@@ -391,26 +358,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Medicines covered up to USD 1,500 Diagnostics &amp; lab tests covered up to USD 2,500  Consultation covered up to USD 2,500</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Silver </t>
+      <t xml:space="preserve"> Medicines covered up to USD 1,500 Diagnostics &amp; lab tests covered up to USD 2,500  Consultation covered up to USD 2,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Silver </t>
     </r>
     <r>
       <rPr>
@@ -431,47 +379,19 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Medicines covered up to USD 1,500 Diagnostics &amp; lab tests covered up to USD 2,500  Consultation covered up to USD 2,500</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Gold</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Adults- Covered in full</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Platinum </t>
+      <t xml:space="preserve"> Medicines covered up to USD 1,500 Diagnostics &amp; lab tests covered up to USD 2,500  Consultation covered up to USD 2,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Gold</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adults- Covered in full - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Platinum </t>
     </r>
     <r>
       <rPr>
@@ -492,26 +412,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Adults- Covered up to USD 250</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Silver </t>
+      <t xml:space="preserve"> Adults- Covered up to USD 250 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Silver </t>
     </r>
     <r>
       <rPr>
@@ -532,47 +433,19 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Adults- Covered in full</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Gold</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Covered in full</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Platinum </t>
+      <t xml:space="preserve"> Adults- Covered in full - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Gold</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Covered in full - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Platinum </t>
     </r>
     <r>
       <rPr>
@@ -612,39 +485,21 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Covered up to USD 10,000 (Combined benefit)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Gold</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Covered in full</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Platinum </t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Covered up to USD 10,000 (Combined benefit) - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Gold</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Covered in full - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Platinum </t>
     </r>
     <r>
       <rPr>
@@ -663,18 +518,9 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Covered up to USD 1,500</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Silver </t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Covered up to USD 1,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Silver </t>
     </r>
     <r>
       <rPr>
@@ -693,18 +539,9 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Covered up to USD 3,000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Gold</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Covered up to USD 3,000 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Gold</t>
     </r>
   </si>
   <si>
@@ -965,7 +802,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -992,12 +829,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1137,10 +968,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BG50"/>
+  <dimension ref="A1:BH50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AS1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AW3" activeCellId="0" sqref="AW3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1149,21 +980,21 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="0" width="11.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="15" style="1" width="11.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="22" style="0" width="11.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="44" min="44" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="11.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="82.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="77.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="23.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="49" style="0" width="11.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="36.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="24.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="3" width="63.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="3" width="68.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="3" width="64.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="3" width="63.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="3" width="61.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="59" style="0" width="11.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="22" style="0" width="11.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="45" min="45" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="11.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="82.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="77.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="23.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="50" style="0" width="11.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="36.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="24.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="3" width="63.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="3" width="68.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="3" width="64.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="3" width="63.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="3" width="61.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="60" style="0" width="11.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1272,39 +1103,39 @@
       <c r="AI1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>35</v>
       </c>
       <c r="AK1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="AM1" s="8"/>
       <c r="AN1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AP1" s="8"/>
       <c r="AQ1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" s="9" t="s">
+      <c r="AR1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AS1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" s="0" t="s">
+      <c r="AT1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" s="10" t="s">
+      <c r="AU1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="AV1" s="0" t="s">
+      <c r="AV1" s="10" t="s">
         <v>45</v>
       </c>
       <c r="AW1" s="0" t="s">
@@ -1322,169 +1153,172 @@
       <c r="BA1" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BB1" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="BC1" s="7" t="s">
+      <c r="BC1" s="3" t="s">
         <v>52</v>
       </c>
       <c r="BD1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BE1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="BF1" s="7" t="s">
+      <c r="BF1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BG1" s="0" t="s">
+      <c r="BG1" s="7" t="s">
         <v>56</v>
+      </c>
+      <c r="BH1" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="441.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="K2" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="Q2" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="V2" s="8"/>
       <c r="W2" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AA2" s="8"/>
       <c r="AB2" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD2" s="8"/>
       <c r="AE2" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AG2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AH2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="AJ2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK2" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="AL2" s="8"/>
-      <c r="AM2" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="AM2" s="8"/>
       <c r="AN2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO2" s="8"/>
+        <v>73</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="AP2" s="8"/>
-      <c r="AQ2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR2" s="9" t="s">
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="4" t="s">
         <v>74</v>
       </c>
       <c r="AS2" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AT2" s="10" t="s">
+      <c r="AT2" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AU2" s="0" t="s">
+      <c r="AU2" s="10" t="s">
         <v>77</v>
       </c>
       <c r="AV2" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="AW2" s="4" t="s">
+      <c r="AW2" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="AX2" s="11" t="s">
+      <c r="AX2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AY2" s="0" t="s">
+      <c r="AY2" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="AZ2" s="4" t="s">
+      <c r="AZ2" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="BA2" s="0" t="s">
+      <c r="BA2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB2" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="BB2" s="12" t="s">
-        <v>83</v>
       </c>
       <c r="BC2" s="12" t="s">
         <v>84</v>
@@ -1498,280 +1332,289 @@
       <c r="BF2" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="BG2" s="0" t="s">
+      <c r="BG2" s="12" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BH2" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="55.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="K3" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="P3" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="Q3" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="V3" s="8"/>
       <c r="W3" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA3" s="8"/>
       <c r="AB3" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD3" s="8"/>
       <c r="AE3" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI3" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK3" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="AL3" s="8"/>
-      <c r="AM3" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="AM3" s="8"/>
       <c r="AN3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO3" s="8"/>
+        <v>73</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="AP3" s="8"/>
-      <c r="AQ3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR3" s="9" t="s">
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="4" t="s">
         <v>74</v>
       </c>
       <c r="AS3" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AT3" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="AU3" s="0" t="s">
+      <c r="AT3" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU3" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="AZ3" s="8" t="s">
+      <c r="AV3" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BA3" s="0" t="s">
+      <c r="BA3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="BB3" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="BG3" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BH3" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="55.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="K4" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="Q4" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="U4" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="V4" s="8"/>
       <c r="W4" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="X4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="Y4" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="Z4" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AA4" s="8"/>
       <c r="AB4" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD4" s="8"/>
       <c r="AE4" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AI4" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK4" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="AK4" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="AL4" s="8"/>
-      <c r="AM4" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="AM4" s="8"/>
       <c r="AN4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO4" s="8"/>
+        <v>73</v>
+      </c>
+      <c r="AO4" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="AP4" s="8"/>
-      <c r="AQ4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR4" s="9" t="s">
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="4" t="s">
         <v>74</v>
       </c>
       <c r="AS4" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AT4" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU4" s="0" t="s">
+      <c r="AT4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU4" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="BA4" s="0" t="s">
-        <v>34</v>
+      <c r="AV4" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="BB4" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT5" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="AU5" s="0" t="s">
+      <c r="AU5" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="BA5" s="8" t="s">
+      <c r="AV5" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="BB5" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1780,279 +1623,279 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="13"/>
-      <c r="AT6" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AU6" s="0" t="s">
+      <c r="AU6" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="BA6" s="0" t="s">
+      <c r="AV6" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB6" s="0" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT7" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU7" s="0" t="s">
+      <c r="AU7" s="10" t="s">
         <v>113</v>
       </c>
+      <c r="AV7" s="0" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT8" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AU8" s="0" t="s">
+      <c r="AU8" s="10" t="s">
         <v>115</v>
       </c>
+      <c r="AV8" s="0" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT9" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU9" s="0" t="s">
+      <c r="AU9" s="10" t="s">
         <v>117</v>
       </c>
+      <c r="AV9" s="0" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT10" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="AU10" s="0" t="s">
+      <c r="AU10" s="10" t="s">
         <v>119</v>
       </c>
+      <c r="AV10" s="0" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT11" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="AU11" s="0" t="s">
+      <c r="AU11" s="10" t="s">
         <v>121</v>
       </c>
+      <c r="AV11" s="0" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT12" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="AU12" s="0" t="s">
+      <c r="AU12" s="10" t="s">
         <v>123</v>
       </c>
+      <c r="AV12" s="0" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT13" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="AU13" s="0" t="s">
+      <c r="AU13" s="10" t="s">
         <v>125</v>
       </c>
+      <c r="AV13" s="0" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT14" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU14" s="0" t="s">
+      <c r="AU14" s="10" t="s">
         <v>127</v>
       </c>
+      <c r="AV14" s="0" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT15" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU15" s="0" t="s">
+      <c r="AU15" s="10" t="s">
         <v>129</v>
       </c>
+      <c r="AV15" s="0" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT16" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU16" s="0" t="s">
+      <c r="AU16" s="10" t="s">
         <v>131</v>
       </c>
+      <c r="AV16" s="0" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT17" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU17" s="0" t="s">
+      <c r="AU17" s="10" t="s">
         <v>133</v>
       </c>
+      <c r="AV17" s="0" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT18" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU18" s="0" t="s">
+      <c r="AU18" s="10" t="s">
         <v>135</v>
       </c>
+      <c r="AV18" s="0" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT19" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU19" s="0" t="s">
+      <c r="AU19" s="10" t="s">
         <v>137</v>
       </c>
+      <c r="AV19" s="0" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT20" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU20" s="0" t="s">
+      <c r="AU20" s="10" t="s">
         <v>139</v>
       </c>
+      <c r="AV20" s="0" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT21" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU21" s="0" t="s">
+      <c r="AU21" s="10" t="s">
         <v>141</v>
       </c>
+      <c r="AV21" s="0" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT22" s="10" t="s">
-        <v>142</v>
+      <c r="AU22" s="10" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT23" s="10" t="s">
-        <v>143</v>
+      <c r="AU23" s="10" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT24" s="10" t="s">
-        <v>144</v>
+      <c r="AU24" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT25" s="10" t="s">
-        <v>145</v>
+      <c r="AU25" s="10" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT26" s="10" t="s">
-        <v>146</v>
+      <c r="AU26" s="10" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT27" s="10" t="s">
-        <v>147</v>
+      <c r="AU27" s="10" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT28" s="10" t="s">
-        <v>148</v>
+      <c r="AU28" s="10" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT29" s="10" t="s">
-        <v>149</v>
+      <c r="AU29" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT30" s="10" t="s">
-        <v>150</v>
+      <c r="AU30" s="10" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT31" s="10" t="s">
-        <v>151</v>
+      <c r="AU31" s="10" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT32" s="10" t="s">
-        <v>152</v>
+      <c r="AU32" s="10" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT33" s="10" t="s">
-        <v>153</v>
+      <c r="AU33" s="10" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT34" s="10" t="s">
-        <v>154</v>
+      <c r="AU34" s="10" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT35" s="10" t="s">
-        <v>155</v>
+      <c r="AU35" s="10" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT36" s="10" t="s">
-        <v>156</v>
+      <c r="AU36" s="10" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT37" s="10" t="s">
-        <v>157</v>
+      <c r="AU37" s="10" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT38" s="10" t="s">
-        <v>158</v>
+      <c r="AU38" s="10" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT39" s="10" t="s">
-        <v>159</v>
+      <c r="AU39" s="10" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT40" s="10" t="s">
-        <v>160</v>
+      <c r="AU40" s="10" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT41" s="10" t="s">
-        <v>161</v>
+      <c r="AU41" s="10" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT42" s="10" t="s">
-        <v>162</v>
+      <c r="AU42" s="10" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT43" s="10" t="s">
-        <v>163</v>
+      <c r="AU43" s="10" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT44" s="10" t="s">
-        <v>164</v>
+      <c r="AU44" s="10" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT45" s="10" t="s">
-        <v>165</v>
+      <c r="AU45" s="10" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT46" s="10" t="s">
-        <v>166</v>
+      <c r="AU46" s="10" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT47" s="10" t="s">
-        <v>167</v>
+      <c r="AU47" s="10" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT48" s="10" t="s">
-        <v>168</v>
+      <c r="AU48" s="10" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT49" s="10" t="s">
-        <v>169</v>
+      <c r="AU49" s="10" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AT50" s="10" t="s">
-        <v>170</v>
+      <c r="AU50" s="10" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/Input/Cigna_Global_Health/cignaScript/inputRates/benefits.xlsx
+++ b/Input/Cigna_Global_Health/cignaScript/inputRates/benefits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="176">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t xml:space="preserve">Deductible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dependent benefits</t>
   </si>
   <si>
     <t xml:space="preserve">Platinum</t>
@@ -548,6 +551,9 @@
     <t xml:space="preserve">IP</t>
   </si>
   <si>
+    <t xml:space="preserve">Dental - Dental_Waiting_Period</t>
+  </si>
+  <si>
     <t xml:space="preserve">Silver</t>
   </si>
   <si>
@@ -578,6 +584,9 @@
     <t xml:space="preserve">OP</t>
   </si>
   <si>
+    <t xml:space="preserve">Dental - Optical Benefits</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gold</t>
   </si>
   <si>
@@ -603,6 +612,9 @@
   </si>
   <si>
     <t xml:space="preserve">$0, 20% Co-insurance, $3,000 Out of pocket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dental - Emergency-Evacuation</t>
   </si>
   <si>
     <t xml:space="preserve">$0, 20% Co-insurance, $2,000 Out of pocket</t>
@@ -802,7 +814,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -828,6 +840,13 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -894,7 +913,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -939,12 +958,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -964,29 +991,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BH50"/>
+  <dimension ref="A1:BI50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AS1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AW3" activeCellId="0" sqref="AW3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BE2" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BI2" activeCellId="0" sqref="BI2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="0" width="11.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="15" style="1" width="11.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="22" style="0" width="11.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="45" min="45" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="11.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="21" min="15" style="1" width="11.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="82.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="77.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="23.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="50" style="0" width="11.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="36.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="24.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="3" width="63.17"/>
@@ -994,10 +1016,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="3" width="64.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="3" width="63.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="3" width="61.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="60" style="0" width="11.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="72.76"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1174,45 +1196,48 @@
       <c r="BH1" s="0" t="s">
         <v>57</v>
       </c>
+      <c r="BI1" s="11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="441.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="K2" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>53</v>
@@ -1237,146 +1262,149 @@
       </c>
       <c r="V2" s="8"/>
       <c r="W2" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA2" s="8"/>
       <c r="AB2" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD2" s="8"/>
       <c r="AE2" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AH2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="AJ2" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK2" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL2" s="8"/>
       <c r="AM2" s="8"/>
       <c r="AN2" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AO2" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AP2" s="8"/>
       <c r="AQ2" s="8"/>
       <c r="AR2" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AS2" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT2" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AU2" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AV2" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AW2" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AX2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY2" s="11" t="s">
         <v>81</v>
       </c>
+      <c r="AY2" s="12" t="s">
+        <v>82</v>
+      </c>
       <c r="AZ2" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BB2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="BC2" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="BD2" s="12" t="s">
+      <c r="BC2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="BE2" s="12" t="s">
+      <c r="BD2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="BF2" s="12" t="s">
+      <c r="BE2" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="BG2" s="12" t="s">
+      <c r="BF2" s="13" t="s">
         <v>88</v>
       </c>
+      <c r="BG2" s="13" t="s">
+        <v>89</v>
+      </c>
       <c r="BH2" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="BI2" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="55.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="K3" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>53</v>
@@ -1401,119 +1429,122 @@
       </c>
       <c r="V3" s="8"/>
       <c r="W3" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AA3" s="8"/>
       <c r="AB3" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD3" s="8"/>
       <c r="AE3" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AI3" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ3" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK3" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL3" s="8"/>
       <c r="AM3" s="8"/>
       <c r="AN3" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AO3" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AP3" s="8"/>
       <c r="AQ3" s="8"/>
       <c r="AR3" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AS3" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT3" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AU3" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AV3" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="BA3" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="BB3" s="0" t="s">
         <v>30</v>
       </c>
       <c r="BH3" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="55.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+      <c r="BI3" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="K4" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>53</v>
@@ -1538,364 +1569,370 @@
       </c>
       <c r="V4" s="8"/>
       <c r="W4" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="X4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="Y4" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="Z4" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AA4" s="8"/>
       <c r="AB4" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD4" s="8"/>
       <c r="AE4" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AI4" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ4" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK4" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL4" s="8"/>
       <c r="AM4" s="8"/>
       <c r="AN4" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AO4" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AP4" s="8"/>
       <c r="AQ4" s="8"/>
       <c r="AR4" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AS4" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT4" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AU4" s="10" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AV4" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="BB4" s="0" t="s">
         <v>35</v>
       </c>
+      <c r="BI4" s="14" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU5" s="10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AV5" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="BB5" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O6" s="13"/>
+      <c r="O6" s="15"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="13"/>
+      <c r="R6" s="15"/>
       <c r="AU6" s="10" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AV6" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="BB6" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU7" s="10" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AV7" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
+      </c>
+      <c r="BB7" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU8" s="10" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AV8" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU9" s="10" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AV9" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU10" s="10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AV10" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU11" s="10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AV11" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU12" s="10" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AV12" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU13" s="10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AV13" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU14" s="10" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AV14" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU15" s="10" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AV15" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU16" s="10" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AV16" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU17" s="10" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AV17" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU18" s="10" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AV18" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU19" s="10" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AV19" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU20" s="10" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AV20" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU21" s="10" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AV21" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU22" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU23" s="10" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU24" s="10" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU25" s="10" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU26" s="10" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU27" s="10" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU28" s="10" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU29" s="10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU30" s="10" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU31" s="10" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU32" s="10" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU33" s="10" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU34" s="10" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU35" s="10" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU36" s="10" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU37" s="10" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU38" s="10" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU39" s="10" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU40" s="10" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU41" s="10" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU42" s="10" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU43" s="10" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU44" s="10" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU45" s="10" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU46" s="10" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU47" s="10" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU48" s="10" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU49" s="10" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU50" s="10" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/Input/Cigna_Global_Health/cignaScript/inputRates/benefits.xlsx
+++ b/Input/Cigna_Global_Health/cignaScript/inputRates/benefits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="178">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t xml:space="preserve">dependent benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discounts</t>
   </si>
   <si>
     <t xml:space="preserve">Platinum</t>
@@ -552,6 +555,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dental - Dental_Waiting_Period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discount</t>
   </si>
   <si>
     <t xml:space="preserve">Silver</t>
@@ -991,24 +997,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BI50"/>
+  <dimension ref="A1:BJ50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BE2" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BE1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="BI2" activeCellId="0" sqref="BI2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.26"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="21" min="15" style="1" width="11.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="0" width="11.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="15" style="1" width="11.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="22" style="0" width="11.72"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="45" min="45" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="11.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="82.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="77.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="23.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="50" style="0" width="11.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="36.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="24.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="3" width="63.17"/>
@@ -1016,7 +1027,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="3" width="64.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="3" width="63.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="3" width="61.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="11.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="72.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="62" style="0" width="11.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1199,45 +1212,48 @@
       <c r="BI1" s="11" t="s">
         <v>58</v>
       </c>
+      <c r="BJ1" s="0" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="441.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="K2" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>53</v>
@@ -1262,149 +1278,152 @@
       </c>
       <c r="V2" s="8"/>
       <c r="W2" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA2" s="8"/>
       <c r="AB2" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD2" s="8"/>
       <c r="AE2" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AH2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="AJ2" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK2" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL2" s="8"/>
       <c r="AM2" s="8"/>
       <c r="AN2" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO2" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AP2" s="8"/>
       <c r="AQ2" s="8"/>
       <c r="AR2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS2" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AT2" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AU2" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AV2" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AW2" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AX2" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AY2" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AZ2" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BB2" s="0" t="s">
         <v>27</v>
       </c>
       <c r="BC2" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BD2" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BE2" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="BF2" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BG2" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="BH2" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BI2" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="BJ2" s="0" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="55.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="K3" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>53</v>
@@ -1429,122 +1448,122 @@
       </c>
       <c r="V3" s="8"/>
       <c r="W3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AA3" s="8"/>
       <c r="AB3" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD3" s="8"/>
       <c r="AE3" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AI3" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ3" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK3" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL3" s="8"/>
       <c r="AM3" s="8"/>
       <c r="AN3" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO3" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AP3" s="8"/>
       <c r="AQ3" s="8"/>
       <c r="AR3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS3" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AT3" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AU3" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AV3" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="BA3" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="BB3" s="0" t="s">
         <v>30</v>
       </c>
       <c r="BH3" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="BI3" s="14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="K4" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>53</v>
@@ -1569,84 +1588,84 @@
       </c>
       <c r="V4" s="8"/>
       <c r="W4" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="X4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="Y4" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="Z4" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AA4" s="8"/>
       <c r="AB4" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD4" s="8"/>
       <c r="AE4" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI4" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ4" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK4" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL4" s="8"/>
       <c r="AM4" s="8"/>
       <c r="AN4" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO4" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AP4" s="8"/>
       <c r="AQ4" s="8"/>
       <c r="AR4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS4" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AT4" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AU4" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AV4" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="BB4" s="0" t="s">
         <v>35</v>
       </c>
       <c r="BI4" s="14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU5" s="10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AV5" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="BB5" s="8" t="s">
         <v>31</v>
@@ -1658,10 +1677,10 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="15"/>
       <c r="AU6" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AV6" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="BB6" s="0" t="s">
         <v>28</v>
@@ -1669,10 +1688,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU7" s="10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AV7" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="BB7" s="14" t="s">
         <v>34</v>
@@ -1680,259 +1699,259 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU8" s="10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AV8" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU9" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AV9" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU10" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AV10" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU11" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AV11" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU12" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AV12" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU13" s="10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AV13" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU14" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AV14" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU15" s="10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AV15" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU16" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AV16" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU17" s="10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AV17" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU18" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AV18" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU19" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AV19" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU20" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AV20" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU21" s="10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AV21" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU22" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU23" s="10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU24" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU25" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU26" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU27" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU28" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU29" s="10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU30" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU31" s="10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU32" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU33" s="10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU34" s="10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU35" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU36" s="10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU37" s="10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU38" s="10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU39" s="10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU40" s="10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU41" s="10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU42" s="10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU43" s="10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU44" s="10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU45" s="10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU46" s="10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU47" s="10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU48" s="10" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU49" s="10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU50" s="10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
